--- a/WF/WF/bin/x64/Debug/GRAFIK.xlsx
+++ b/WF/WF/bin/x64/Debug/GRAFIK.xlsx
@@ -83,6 +83,266 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8.8966119350710304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.419324194659758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.942036454248488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.464748713837217</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.987460973425947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.510173233014676</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.032885492603405</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.555597752192135</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.078310011780864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31.601022271369594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.123734530958323</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.646446790547053</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.169159050135782</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41.691871309724512</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.214583569313241</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.737295828901971</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.2600080884907</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.78272034807943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F571-4D42-82D3-02031749E107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F571-4D42-82D3-02031749E107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="264439656"/>
+        <c:axId val="264442608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="264439656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="264442608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="264442608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="264439656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,151 +624,151 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>9.21975584934758</v>
+        <v>8.8966119350710304</v>
       </c>
       <c r="B2">
-        <v>1858</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>12.892228638559004</v>
+        <v>11.419324194659758</v>
       </c>
       <c r="B3">
-        <v>8996</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>16.56470142777043</v>
+        <v>13.942036454248488</v>
       </c>
       <c r="B4">
-        <v>12372</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>20.237174216981856</v>
+        <v>16.464748713837217</v>
       </c>
       <c r="B5">
-        <v>10498</v>
+        <v>755</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>23.909647006193282</v>
+        <v>18.987460973425947</v>
       </c>
       <c r="B6">
-        <v>6903</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>27.582119795404708</v>
+        <v>21.510173233014676</v>
       </c>
       <c r="B7">
-        <v>4302</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>31.254592584616134</v>
+        <v>24.032885492603405</v>
       </c>
       <c r="B8">
-        <v>2383</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>34.92706537382756</v>
+        <v>26.555597752192135</v>
       </c>
       <c r="B9">
-        <v>1335</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>38.599538163038986</v>
+        <v>29.078310011780864</v>
       </c>
       <c r="B10">
-        <v>670</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>42.272010952250412</v>
+        <v>31.601022271369594</v>
       </c>
       <c r="B11">
-        <v>309</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>45.944483741461838</v>
+        <v>34.123734530958323</v>
       </c>
       <c r="B12">
-        <v>174</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>49.616956530673264</v>
+        <v>36.646446790547053</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>53.28942931988469</v>
+        <v>39.169159050135782</v>
       </c>
       <c r="B14">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>56.961902109096116</v>
+        <v>41.691871309724512</v>
       </c>
       <c r="B15">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>60.634374898307541</v>
+        <v>44.214583569313241</v>
       </c>
       <c r="B16">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>64.306847687518967</v>
+        <v>46.737295828901971</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>67.979320476730393</v>
+        <v>49.2600080884907</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>71.651793265941819</v>
+        <v>51.78272034807943</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>75.324266055153245</v>
+        <v>54.305432607668159</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -516,13 +776,14 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>78.996738844364671</v>
+        <v>56.828144867256889</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WF/WF/bin/x64/Debug/GRAFIK.xlsx
+++ b/WF/WF/bin/x64/Debug/GRAFIK.xlsx
@@ -115,58 +115,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>8.8966119350710304</c:v>
+                  <c:v>8.8234328295524627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.419324194659758</c:v>
+                  <c:v>12.370672621892343</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.942036454248488</c:v>
+                  <c:v>15.917912414232223</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.464748713837217</c:v>
+                  <c:v>19.465152206572103</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.987460973425947</c:v>
+                  <c:v>23.012391998911983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.510173233014676</c:v>
+                  <c:v>26.559631791251864</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.032885492603405</c:v>
+                  <c:v>30.106871583591744</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.555597752192135</c:v>
+                  <c:v>33.654111375931627</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.078310011780864</c:v>
+                  <c:v>37.201351168271508</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.601022271369594</c:v>
+                  <c:v>40.748590960611388</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>34.123734530958323</c:v>
+                  <c:v>44.295830752951268</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36.646446790547053</c:v>
+                  <c:v>47.843070545291148</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>39.169159050135782</c:v>
+                  <c:v>51.390310337631028</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>41.691871309724512</c:v>
+                  <c:v>54.937550129970909</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.214583569313241</c:v>
+                  <c:v>58.484789922310789</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.737295828901971</c:v>
+                  <c:v>62.032029714650669</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.2600080884907</c:v>
+                  <c:v>65.579269506990556</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>51.78272034807943</c:v>
+                  <c:v>69.126509299330436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -174,7 +174,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F571-4D42-82D3-02031749E107}"/>
+              <c16:uniqueId val="{00000002-489F-4EE8-9460-CE76420C5B7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -188,58 +188,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>129</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>537</c:v>
+                  <c:v>7604</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>912</c:v>
+                  <c:v>12062</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>755</c:v>
+                  <c:v>10803</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>783</c:v>
+                  <c:v>7559</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>577</c:v>
+                  <c:v>4673</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>459</c:v>
+                  <c:v>2722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>264</c:v>
+                  <c:v>1561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>207</c:v>
+                  <c:v>805</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>142</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>85</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -247,7 +247,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-F571-4D42-82D3-02031749E107}"/>
+              <c16:uniqueId val="{00000003-489F-4EE8-9460-CE76420C5B7F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -259,11 +259,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="264439656"/>
-        <c:axId val="264442608"/>
+        <c:axId val="44815984"/>
+        <c:axId val="268979392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="264439656"/>
+        <c:axId val="44815984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,12 +272,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264442608"/>
+        <c:crossAx val="268979392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="264442608"/>
+        <c:axId val="268979392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -288,7 +288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="264439656"/>
+        <c:crossAx val="44815984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -624,162 +624,162 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>8.8966119350710304</v>
+        <v>8.8234328295524627</v>
       </c>
       <c r="B2">
-        <v>129</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11.419324194659758</v>
+        <v>12.370672621892343</v>
       </c>
       <c r="B3">
-        <v>537</v>
+        <v>7604</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13.942036454248488</v>
+        <v>15.917912414232223</v>
       </c>
       <c r="B4">
-        <v>912</v>
+        <v>12062</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>16.464748713837217</v>
+        <v>19.465152206572103</v>
       </c>
       <c r="B5">
-        <v>755</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>18.987460973425947</v>
+        <v>23.012391998911983</v>
       </c>
       <c r="B6">
-        <v>783</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21.510173233014676</v>
+        <v>26.559631791251864</v>
       </c>
       <c r="B7">
-        <v>577</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>24.032885492603405</v>
+        <v>30.106871583591744</v>
       </c>
       <c r="B8">
-        <v>459</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>26.555597752192135</v>
+        <v>33.654111375931627</v>
       </c>
       <c r="B9">
-        <v>264</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>29.078310011780864</v>
+        <v>37.201351168271508</v>
       </c>
       <c r="B10">
-        <v>207</v>
+        <v>805</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>31.601022271369594</v>
+        <v>40.748590960611388</v>
       </c>
       <c r="B11">
-        <v>142</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>34.123734530958323</v>
+        <v>44.295830752951268</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>36.646446790547053</v>
+        <v>47.843070545291148</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>39.169159050135782</v>
+        <v>51.390310337631028</v>
       </c>
       <c r="B14">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>41.691871309724512</v>
+        <v>54.937550129970909</v>
       </c>
       <c r="B15">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>44.214583569313241</v>
+        <v>58.484789922310789</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>46.737295828901971</v>
+        <v>62.032029714650669</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>49.2600080884907</v>
+        <v>65.579269506990556</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>51.78272034807943</v>
+        <v>69.126509299330436</v>
       </c>
       <c r="B19">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>54.305432607668159</v>
+        <v>72.673749091670317</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>56.828144867256889</v>
+        <v>76.220988884010197</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
